--- a/Data/pd.xlsx
+++ b/Data/pd.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_ftn1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_ftnref1" vbProcedure="false">Лист1!$A$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_ftnref1" vbProcedure="false">Лист1!$A$35</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
   <si>
     <t xml:space="preserve">фамилия, имя, отчество</t>
   </si>
@@ -93,6 +96,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">за последние 5 лет</t>
     </r>
@@ -188,6 +192,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,22 +265,22 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="75.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -315,12 +320,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -355,12 +360,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -380,12 +385,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -425,22 +430,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
